--- a/LifePodsAlgorithm/src/source/test9.xlsx
+++ b/LifePodsAlgorithm/src/source/test9.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelorr/Desktop/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelorr/Documents/GitHub/SustainableLifeApp/LifePodsAlgorithm/src/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F7D5BBC-B56B-2246-BAD6-BAE463D30708}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5919997A-1941-1C4B-BEFD-F653CEDBEA34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Copy of Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="70">
   <si>
     <t>Priority (highest = 1)</t>
   </si>
@@ -79,21 +78,12 @@
     <t>work</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Hermione Granger</t>
   </si>
   <si>
-    <t>looking for work</t>
-  </si>
-  <si>
     <t>Harry Potter</t>
   </si>
   <si>
-    <t>grad school</t>
-  </si>
-  <si>
     <t>Draco Malfoy</t>
   </si>
   <si>
@@ -119,9 +109,6 @@
   </si>
   <si>
     <t>Dobby Elf</t>
-  </si>
-  <si>
-    <t>maybe</t>
   </si>
   <si>
     <t>Bellatrix Lestrange</t>
@@ -311,14 +298,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,11 +523,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE54"/>
+  <dimension ref="A1:AE56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M55" sqref="M55"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -674,7 +660,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -697,7 +683,7 @@
         <v>354</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -706,10 +692,10 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -732,7 +718,7 @@
         <v>54</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -741,10 +727,10 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -767,7 +753,7 @@
         <v>206</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -776,10 +762,10 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -802,7 +788,7 @@
         <v>367</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -814,7 +800,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -837,7 +823,7 @@
         <v>341</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -846,10 +832,10 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -872,7 +858,7 @@
         <v>398</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -881,10 +867,10 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -907,7 +893,7 @@
         <v>286</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -916,10 +902,10 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -942,7 +928,7 @@
         <v>302</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -954,7 +940,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -977,7 +963,7 @@
         <v>121</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -986,10 +972,10 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1012,7 +998,7 @@
         <v>65</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1021,10 +1007,10 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1047,7 +1033,7 @@
         <v>348</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1056,10 +1042,10 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1082,7 +1068,7 @@
         <v>241</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1094,7 +1080,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1117,7 +1103,7 @@
         <v>256</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1126,10 +1112,10 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1152,7 +1138,7 @@
         <v>443</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1164,7 +1150,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1187,7 +1173,7 @@
         <v>203</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1196,10 +1182,10 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1222,7 +1208,7 @@
         <v>358</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1231,10 +1217,10 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1257,7 +1243,7 @@
         <v>123</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1266,10 +1252,10 @@
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1292,7 +1278,7 @@
         <v>313</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1304,7 +1290,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1327,7 +1313,7 @@
         <v>472</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1336,10 +1322,10 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1362,10 +1348,10 @@
         <v>467</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1374,10 +1360,10 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1400,7 +1386,7 @@
         <v>115</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1409,10 +1395,10 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1435,7 +1421,7 @@
         <v>181</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1444,10 +1430,10 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1470,7 +1456,7 @@
         <v>381</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1479,10 +1465,10 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1505,7 +1491,7 @@
         <v>321</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1514,10 +1500,10 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1540,7 +1526,7 @@
         <v>70</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1549,10 +1535,10 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1575,7 +1561,7 @@
         <v>59</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1584,10 +1570,10 @@
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1610,7 +1596,7 @@
         <v>376</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1619,10 +1605,10 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1645,7 +1631,7 @@
         <v>399</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1654,10 +1640,10 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1680,7 +1666,7 @@
         <v>42</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1689,10 +1675,10 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1715,7 +1701,7 @@
         <v>229</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1724,10 +1710,10 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1750,7 +1736,7 @@
         <v>192</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1759,10 +1745,10 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1785,7 +1771,7 @@
         <v>449</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1794,10 +1780,10 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1820,7 +1806,7 @@
         <v>309</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1829,10 +1815,10 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1855,7 +1841,7 @@
         <v>319</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1864,10 +1850,10 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1890,7 +1876,7 @@
         <v>144</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1899,10 +1885,10 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1925,7 +1911,7 @@
         <v>387</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1934,10 +1920,10 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1960,7 +1946,7 @@
         <v>242</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1969,10 +1955,10 @@
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1995,7 +1981,7 @@
         <v>83</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2004,10 +1990,10 @@
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -2030,7 +2016,7 @@
         <v>384</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2039,10 +2025,10 @@
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -2065,7 +2051,7 @@
         <v>486</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2074,10 +2060,10 @@
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -2100,7 +2086,7 @@
         <v>464</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2109,10 +2095,10 @@
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -2135,7 +2121,7 @@
         <v>460</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2144,10 +2130,10 @@
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -2170,7 +2156,7 @@
         <v>165</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2179,10 +2165,10 @@
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -2205,7 +2191,7 @@
         <v>56</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2214,10 +2200,10 @@
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -2240,7 +2226,7 @@
         <v>150</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2249,10 +2235,10 @@
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -2275,7 +2261,7 @@
         <v>457</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2284,10 +2270,10 @@
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -2310,7 +2296,7 @@
         <v>253</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2319,10 +2305,10 @@
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -2345,7 +2331,7 @@
         <v>14</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2354,10 +2340,10 @@
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -2380,7 +2366,7 @@
         <v>265</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="13" x14ac:dyDescent="0.15">
@@ -2389,10 +2375,10 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -2415,7 +2401,7 @@
         <v>25</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2424,10 +2410,10 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -2450,7 +2436,7 @@
         <v>265</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2459,10 +2445,10 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2485,1886 +2471,14 @@
         <v>25</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:AC51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="7" max="10" width="16.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-    </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6">
-        <f t="shared" ref="E2:F2" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>33</v>
-      </c>
-      <c r="F2" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G2" s="6">
-        <f t="shared" ref="G2:J2" ca="1" si="1">RANDBETWEEN(1,500)</f>
-        <v>448</v>
-      </c>
-      <c r="H2" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>413</v>
-      </c>
-      <c r="I2" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="J2" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6">
-        <f t="shared" ref="E3:F3" ca="1" si="2">RANDBETWEEN(1,100)</f>
-        <v>51</v>
-      </c>
-      <c r="F3" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:G51" ca="1" si="3">RANDBETWEEN(1,200)</f>
-        <v>177</v>
-      </c>
-      <c r="H3" s="6">
-        <f t="shared" ref="H3:J3" ca="1" si="4">RANDBETWEEN(1,500)</f>
-        <v>90</v>
-      </c>
-      <c r="I3" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>145</v>
-      </c>
-      <c r="J3" s="6">
-        <f t="shared" ca="1" si="4"/>
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6">
-        <f t="shared" ref="E4:F4" ca="1" si="5">RANDBETWEEN(1,100)</f>
-        <v>95</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ca="1" si="5"/>
-        <v>92</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>132</v>
-      </c>
-      <c r="H4" s="6">
-        <f t="shared" ref="H4:J4" ca="1" si="6">RANDBETWEEN(1,500)</f>
-        <v>333</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>254</v>
-      </c>
-      <c r="J4" s="6">
-        <f t="shared" ca="1" si="6"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" ref="E5:F5" ca="1" si="7">RANDBETWEEN(1,100)</f>
-        <v>68</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" ca="1" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" ref="H5:J5" ca="1" si="8">RANDBETWEEN(1,500)</f>
-        <v>68</v>
-      </c>
-      <c r="I5" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>186</v>
-      </c>
-      <c r="J5" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" ref="E6:F6" ca="1" si="9">RANDBETWEEN(1,100)</f>
-        <v>51</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" ca="1" si="9"/>
-        <v>53</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" ref="H6:J6" ca="1" si="10">RANDBETWEEN(1,500)</f>
-        <v>26</v>
-      </c>
-      <c r="I6" s="6">
-        <f t="shared" ca="1" si="10"/>
-        <v>144</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" ca="1" si="10"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" ref="E7:F7" ca="1" si="11">RANDBETWEEN(1,100)</f>
-        <v>38</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" ca="1" si="11"/>
-        <v>34</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>196</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" ref="H7:J7" ca="1" si="12">RANDBETWEEN(1,500)</f>
-        <v>392</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>399</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" ca="1" si="12"/>
-        <v>337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" ref="E8:F8" ca="1" si="13">RANDBETWEEN(1,100)</f>
-        <v>9</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" ca="1" si="13"/>
         <v>69</v>
       </c>
-      <c r="G8" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" ref="H8:J8" ca="1" si="14">RANDBETWEEN(1,500)</f>
-        <v>19</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>155</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" ref="E9:F9" ca="1" si="15">RANDBETWEEN(1,100)</f>
-        <v>65</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" ca="1" si="15"/>
-        <v>31</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>73</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" ref="H9:J9" ca="1" si="16">RANDBETWEEN(1,500)</f>
-        <v>383</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>107</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" ca="1" si="16"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" ref="E10:F10" ca="1" si="17">RANDBETWEEN(1,100)</f>
-        <v>55</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" ca="1" si="17"/>
-        <v>75</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>161</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" ref="H10:J10" ca="1" si="18">RANDBETWEEN(1,500)</f>
-        <v>104</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" ca="1" si="18"/>
-        <v>59</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" ca="1" si="18"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" ref="E11:F11" ca="1" si="19">RANDBETWEEN(1,100)</f>
-        <v>52</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" ca="1" si="19"/>
-        <v>24</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" ref="H11:J11" ca="1" si="20">RANDBETWEEN(1,500)</f>
-        <v>134</v>
-      </c>
-      <c r="I11" s="6">
-        <f t="shared" ca="1" si="20"/>
-        <v>276</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" ca="1" si="20"/>
-        <v>317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" ref="E12:F12" ca="1" si="21">RANDBETWEEN(1,100)</f>
-        <v>87</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" ca="1" si="21"/>
-        <v>9</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>154</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" ref="H12:J12" ca="1" si="22">RANDBETWEEN(1,500)</f>
-        <v>184</v>
-      </c>
-      <c r="I12" s="6">
-        <f t="shared" ca="1" si="22"/>
-        <v>235</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" ca="1" si="22"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" ref="E13:F13" ca="1" si="23">RANDBETWEEN(1,100)</f>
-        <v>38</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" ca="1" si="23"/>
-        <v>62</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>102</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" ref="H13:J13" ca="1" si="24">RANDBETWEEN(1,500)</f>
-        <v>158</v>
-      </c>
-      <c r="I13" s="6">
-        <f t="shared" ca="1" si="24"/>
-        <v>341</v>
-      </c>
-      <c r="J13" s="6">
-        <f t="shared" ca="1" si="24"/>
-        <v>461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" ref="E14:F14" ca="1" si="25">RANDBETWEEN(1,100)</f>
-        <v>91</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" ca="1" si="25"/>
-        <v>68</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>79</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" ref="H14:J14" ca="1" si="26">RANDBETWEEN(1,500)</f>
-        <v>225</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" ca="1" si="26"/>
-        <v>202</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" ca="1" si="26"/>
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" ref="E15:F15" ca="1" si="27">RANDBETWEEN(1,100)</f>
-        <v>44</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" ca="1" si="27"/>
-        <v>28</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>187</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" ref="H15:J15" ca="1" si="28">RANDBETWEEN(1,500)</f>
-        <v>190</v>
-      </c>
-      <c r="I15" s="6">
-        <f t="shared" ca="1" si="28"/>
-        <v>305</v>
-      </c>
-      <c r="J15" s="6">
-        <f t="shared" ca="1" si="28"/>
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" ref="E16:F16" ca="1" si="29">RANDBETWEEN(1,100)</f>
-        <v>68</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" ca="1" si="29"/>
-        <v>84</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>179</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" ref="H16:J16" ca="1" si="30">RANDBETWEEN(1,500)</f>
-        <v>374</v>
-      </c>
-      <c r="I16" s="6">
-        <f t="shared" ca="1" si="30"/>
-        <v>100</v>
-      </c>
-      <c r="J16" s="6">
-        <f t="shared" ca="1" si="30"/>
-        <v>353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" ref="E17:F17" ca="1" si="31">RANDBETWEEN(1,100)</f>
-        <v>51</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" ca="1" si="31"/>
-        <v>17</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>83</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" ref="H17:J17" ca="1" si="32">RANDBETWEEN(1,500)</f>
-        <v>391</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" ca="1" si="32"/>
-        <v>71</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" ca="1" si="32"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="6">
-        <f t="shared" ref="E18:F18" ca="1" si="33">RANDBETWEEN(1,100)</f>
-        <v>92</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" ca="1" si="33"/>
-        <v>44</v>
-      </c>
-      <c r="G18" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>186</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" ref="H18:J18" ca="1" si="34">RANDBETWEEN(1,500)</f>
-        <v>46</v>
-      </c>
-      <c r="I18" s="6">
-        <f t="shared" ca="1" si="34"/>
-        <v>338</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" ca="1" si="34"/>
-        <v>402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" ref="E19:F19" ca="1" si="35">RANDBETWEEN(1,100)</f>
-        <v>29</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" ca="1" si="35"/>
-        <v>46</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" ref="H19:J19" ca="1" si="36">RANDBETWEEN(1,500)</f>
-        <v>367</v>
-      </c>
-      <c r="I19" s="6">
-        <f t="shared" ca="1" si="36"/>
-        <v>52</v>
-      </c>
-      <c r="J19" s="6">
-        <f t="shared" ca="1" si="36"/>
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" ref="E20:F20" ca="1" si="37">RANDBETWEEN(1,100)</f>
-        <v>43</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" ca="1" si="37"/>
-        <v>87</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" ref="H20:J20" ca="1" si="38">RANDBETWEEN(1,500)</f>
-        <v>130</v>
-      </c>
-      <c r="I20" s="6">
-        <f t="shared" ca="1" si="38"/>
-        <v>117</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" ca="1" si="38"/>
-        <v>424</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="6">
-        <f t="shared" ref="E21:F21" ca="1" si="39">RANDBETWEEN(1,100)</f>
-        <v>89</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" ca="1" si="39"/>
-        <v>91</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>123</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" ref="H21:J21" ca="1" si="40">RANDBETWEEN(1,500)</f>
-        <v>243</v>
-      </c>
-      <c r="I21" s="6">
-        <f t="shared" ca="1" si="40"/>
-        <v>390</v>
-      </c>
-      <c r="J21" s="6">
-        <f t="shared" ca="1" si="40"/>
-        <v>438</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="6">
-        <f t="shared" ref="E22:F22" ca="1" si="41">RANDBETWEEN(1,100)</f>
-        <v>97</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" ca="1" si="41"/>
-        <v>76</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" ref="H22:J22" ca="1" si="42">RANDBETWEEN(1,500)</f>
-        <v>483</v>
-      </c>
-      <c r="I22" s="6">
-        <f t="shared" ca="1" si="42"/>
-        <v>447</v>
-      </c>
-      <c r="J22" s="6">
-        <f t="shared" ca="1" si="42"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="6">
-        <f t="shared" ref="E23:F23" ca="1" si="43">RANDBETWEEN(1,100)</f>
-        <v>2</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" ca="1" si="43"/>
-        <v>36</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="H23" s="6">
-        <f t="shared" ref="H23:J23" ca="1" si="44">RANDBETWEEN(1,500)</f>
-        <v>329</v>
-      </c>
-      <c r="I23" s="6">
-        <f t="shared" ca="1" si="44"/>
-        <v>206</v>
-      </c>
-      <c r="J23" s="6">
-        <f t="shared" ca="1" si="44"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="6">
-        <f t="shared" ref="E24:F24" ca="1" si="45">RANDBETWEEN(1,100)</f>
-        <v>71</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" ca="1" si="45"/>
-        <v>70</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>190</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" ref="H24:J24" ca="1" si="46">RANDBETWEEN(1,500)</f>
-        <v>102</v>
-      </c>
-      <c r="I24" s="6">
-        <f t="shared" ca="1" si="46"/>
-        <v>442</v>
-      </c>
-      <c r="J24" s="6">
-        <f t="shared" ca="1" si="46"/>
-        <v>386</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="6">
-        <f t="shared" ref="E25:F25" ca="1" si="47">RANDBETWEEN(1,100)</f>
-        <v>10</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" ca="1" si="47"/>
-        <v>95</v>
-      </c>
-      <c r="G25" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" ref="H25:J25" ca="1" si="48">RANDBETWEEN(1,500)</f>
-        <v>138</v>
-      </c>
-      <c r="I25" s="6">
-        <f t="shared" ca="1" si="48"/>
-        <v>251</v>
-      </c>
-      <c r="J25" s="6">
-        <f t="shared" ca="1" si="48"/>
-        <v>414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="6">
-        <f t="shared" ref="E26:F26" ca="1" si="49">RANDBETWEEN(1,100)</f>
-        <v>1</v>
-      </c>
-      <c r="F26" s="6">
-        <f t="shared" ca="1" si="49"/>
-        <v>100</v>
-      </c>
-      <c r="G26" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>172</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" ref="H26:J26" ca="1" si="50">RANDBETWEEN(1,500)</f>
-        <v>54</v>
-      </c>
-      <c r="I26" s="6">
-        <f t="shared" ca="1" si="50"/>
-        <v>289</v>
-      </c>
-      <c r="J26" s="6">
-        <f t="shared" ca="1" si="50"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="6">
-        <f t="shared" ref="E27:F27" ca="1" si="51">RANDBETWEEN(1,100)</f>
-        <v>70</v>
-      </c>
-      <c r="F27" s="6">
-        <f t="shared" ca="1" si="51"/>
-        <v>52</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>177</v>
-      </c>
-      <c r="H27" s="6">
-        <f t="shared" ref="H27:J27" ca="1" si="52">RANDBETWEEN(1,500)</f>
-        <v>432</v>
-      </c>
-      <c r="I27" s="6">
-        <f t="shared" ca="1" si="52"/>
-        <v>96</v>
-      </c>
-      <c r="J27" s="6">
-        <f t="shared" ca="1" si="52"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="6">
-        <f t="shared" ref="E28:F28" ca="1" si="53">RANDBETWEEN(1,100)</f>
-        <v>61</v>
-      </c>
-      <c r="F28" s="6">
-        <f t="shared" ca="1" si="53"/>
-        <v>83</v>
-      </c>
-      <c r="G28" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>156</v>
-      </c>
-      <c r="H28" s="6">
-        <f t="shared" ref="H28:J28" ca="1" si="54">RANDBETWEEN(1,500)</f>
-        <v>421</v>
-      </c>
-      <c r="I28" s="6">
-        <f t="shared" ca="1" si="54"/>
-        <v>204</v>
-      </c>
-      <c r="J28" s="6">
-        <f t="shared" ca="1" si="54"/>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="6">
-        <f t="shared" ref="E29:F29" ca="1" si="55">RANDBETWEEN(1,100)</f>
-        <v>54</v>
-      </c>
-      <c r="F29" s="6">
-        <f t="shared" ca="1" si="55"/>
-        <v>63</v>
-      </c>
-      <c r="G29" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="H29" s="6">
-        <f t="shared" ref="H29:J29" ca="1" si="56">RANDBETWEEN(1,500)</f>
-        <v>425</v>
-      </c>
-      <c r="I29" s="6">
-        <f t="shared" ca="1" si="56"/>
-        <v>290</v>
-      </c>
-      <c r="J29" s="6">
-        <f t="shared" ca="1" si="56"/>
-        <v>410</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="6">
-        <f t="shared" ref="E30:F30" ca="1" si="57">RANDBETWEEN(1,100)</f>
-        <v>66</v>
-      </c>
-      <c r="F30" s="6">
-        <f t="shared" ca="1" si="57"/>
-        <v>5</v>
-      </c>
-      <c r="G30" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="H30" s="6">
-        <f t="shared" ref="H30:J30" ca="1" si="58">RANDBETWEEN(1,500)</f>
-        <v>249</v>
-      </c>
-      <c r="I30" s="6">
-        <f t="shared" ca="1" si="58"/>
-        <v>99</v>
-      </c>
-      <c r="J30" s="6">
-        <f t="shared" ca="1" si="58"/>
-        <v>242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="6">
-        <f t="shared" ref="E31:F31" ca="1" si="59">RANDBETWEEN(1,100)</f>
-        <v>84</v>
-      </c>
-      <c r="F31" s="6">
-        <f t="shared" ca="1" si="59"/>
-        <v>68</v>
-      </c>
-      <c r="G31" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="H31" s="6">
-        <f t="shared" ref="H31:J31" ca="1" si="60">RANDBETWEEN(1,500)</f>
-        <v>12</v>
-      </c>
-      <c r="I31" s="6">
-        <f t="shared" ca="1" si="60"/>
-        <v>386</v>
-      </c>
-      <c r="J31" s="6">
-        <f t="shared" ca="1" si="60"/>
-        <v>353</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="6">
-        <f t="shared" ref="E32:F32" ca="1" si="61">RANDBETWEEN(1,100)</f>
-        <v>45</v>
-      </c>
-      <c r="F32" s="6">
-        <f t="shared" ca="1" si="61"/>
-        <v>5</v>
-      </c>
-      <c r="G32" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>103</v>
-      </c>
-      <c r="H32" s="6">
-        <f t="shared" ref="H32:J32" ca="1" si="62">RANDBETWEEN(1,500)</f>
-        <v>362</v>
-      </c>
-      <c r="I32" s="6">
-        <f t="shared" ca="1" si="62"/>
-        <v>492</v>
-      </c>
-      <c r="J32" s="6">
-        <f t="shared" ca="1" si="62"/>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="6">
-        <f t="shared" ref="E33:F33" ca="1" si="63">RANDBETWEEN(1,100)</f>
-        <v>50</v>
-      </c>
-      <c r="F33" s="6">
-        <f t="shared" ca="1" si="63"/>
-        <v>10</v>
-      </c>
-      <c r="G33" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="H33" s="6">
-        <f t="shared" ref="H33:J33" ca="1" si="64">RANDBETWEEN(1,500)</f>
-        <v>438</v>
-      </c>
-      <c r="I33" s="6">
-        <f t="shared" ca="1" si="64"/>
-        <v>493</v>
-      </c>
-      <c r="J33" s="6">
-        <f t="shared" ca="1" si="64"/>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="6">
-        <f t="shared" ref="E34:F34" ca="1" si="65">RANDBETWEEN(1,100)</f>
-        <v>13</v>
-      </c>
-      <c r="F34" s="6">
-        <f t="shared" ca="1" si="65"/>
-        <v>12</v>
-      </c>
-      <c r="G34" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>149</v>
-      </c>
-      <c r="H34" s="6">
-        <f t="shared" ref="H34:J34" ca="1" si="66">RANDBETWEEN(1,500)</f>
-        <v>410</v>
-      </c>
-      <c r="I34" s="6">
-        <f t="shared" ca="1" si="66"/>
-        <v>391</v>
-      </c>
-      <c r="J34" s="6">
-        <f t="shared" ca="1" si="66"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="6">
-        <f t="shared" ref="E35:F35" ca="1" si="67">RANDBETWEEN(1,100)</f>
-        <v>8</v>
-      </c>
-      <c r="F35" s="6">
-        <f t="shared" ca="1" si="67"/>
-        <v>63</v>
-      </c>
-      <c r="G35" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="H35" s="6">
-        <f t="shared" ref="H35:J35" ca="1" si="68">RANDBETWEEN(1,500)</f>
-        <v>144</v>
-      </c>
-      <c r="I35" s="6">
-        <f t="shared" ca="1" si="68"/>
-        <v>415</v>
-      </c>
-      <c r="J35" s="6">
-        <f t="shared" ca="1" si="68"/>
-        <v>298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="6">
-        <f t="shared" ref="E36:F36" ca="1" si="69">RANDBETWEEN(1,100)</f>
-        <v>29</v>
-      </c>
-      <c r="F36" s="6">
-        <f t="shared" ca="1" si="69"/>
-        <v>28</v>
-      </c>
-      <c r="G36" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>97</v>
-      </c>
-      <c r="H36" s="6">
-        <f t="shared" ref="H36:J36" ca="1" si="70">RANDBETWEEN(1,500)</f>
-        <v>199</v>
-      </c>
-      <c r="I36" s="6">
-        <f t="shared" ca="1" si="70"/>
-        <v>107</v>
-      </c>
-      <c r="J36" s="6">
-        <f t="shared" ca="1" si="70"/>
-        <v>413</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="6">
-        <f t="shared" ref="E37:F37" ca="1" si="71">RANDBETWEEN(1,100)</f>
-        <v>22</v>
-      </c>
-      <c r="F37" s="6">
-        <f t="shared" ca="1" si="71"/>
-        <v>32</v>
-      </c>
-      <c r="G37" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H37" s="6">
-        <f t="shared" ref="H37:J37" ca="1" si="72">RANDBETWEEN(1,500)</f>
-        <v>194</v>
-      </c>
-      <c r="I37" s="6">
-        <f t="shared" ca="1" si="72"/>
-        <v>51</v>
-      </c>
-      <c r="J37" s="6">
-        <f t="shared" ca="1" si="72"/>
-        <v>487</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="6">
-        <f t="shared" ref="E38:F38" ca="1" si="73">RANDBETWEEN(1,100)</f>
-        <v>67</v>
-      </c>
-      <c r="F38" s="6">
-        <f t="shared" ca="1" si="73"/>
-        <v>11</v>
-      </c>
-      <c r="G38" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>128</v>
-      </c>
-      <c r="H38" s="6">
-        <f t="shared" ref="H38:J38" ca="1" si="74">RANDBETWEEN(1,500)</f>
-        <v>316</v>
-      </c>
-      <c r="I38" s="6">
-        <f t="shared" ca="1" si="74"/>
-        <v>96</v>
-      </c>
-      <c r="J38" s="6">
-        <f t="shared" ca="1" si="74"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="6">
-        <f t="shared" ref="E39:F39" ca="1" si="75">RANDBETWEEN(1,100)</f>
-        <v>85</v>
-      </c>
-      <c r="F39" s="6">
-        <f t="shared" ca="1" si="75"/>
-        <v>35</v>
-      </c>
-      <c r="G39" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>102</v>
-      </c>
-      <c r="H39" s="6">
-        <f t="shared" ref="H39:J39" ca="1" si="76">RANDBETWEEN(1,500)</f>
-        <v>53</v>
-      </c>
-      <c r="I39" s="6">
-        <f t="shared" ca="1" si="76"/>
-        <v>379</v>
-      </c>
-      <c r="J39" s="6">
-        <f t="shared" ca="1" si="76"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="6">
-        <f t="shared" ref="E40:F40" ca="1" si="77">RANDBETWEEN(1,100)</f>
-        <v>21</v>
-      </c>
-      <c r="F40" s="6">
-        <f t="shared" ca="1" si="77"/>
-        <v>28</v>
-      </c>
-      <c r="G40" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>159</v>
-      </c>
-      <c r="H40" s="6">
-        <f t="shared" ref="H40:J40" ca="1" si="78">RANDBETWEEN(1,500)</f>
-        <v>201</v>
-      </c>
-      <c r="I40" s="6">
-        <f t="shared" ca="1" si="78"/>
-        <v>32</v>
-      </c>
-      <c r="J40" s="6">
-        <f t="shared" ca="1" si="78"/>
-        <v>414</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="6">
-        <f t="shared" ref="E41:F41" ca="1" si="79">RANDBETWEEN(1,100)</f>
-        <v>25</v>
-      </c>
-      <c r="F41" s="6">
-        <f t="shared" ca="1" si="79"/>
-        <v>71</v>
-      </c>
-      <c r="G41" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="H41" s="6">
-        <f t="shared" ref="H41:J41" ca="1" si="80">RANDBETWEEN(1,500)</f>
-        <v>357</v>
-      </c>
-      <c r="I41" s="6">
-        <f t="shared" ca="1" si="80"/>
-        <v>24</v>
-      </c>
-      <c r="J41" s="6">
-        <f t="shared" ca="1" si="80"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="6">
-        <f t="shared" ref="E42:F42" ca="1" si="81">RANDBETWEEN(1,100)</f>
-        <v>39</v>
-      </c>
-      <c r="F42" s="6">
-        <f t="shared" ca="1" si="81"/>
-        <v>29</v>
-      </c>
-      <c r="G42" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>117</v>
-      </c>
-      <c r="H42" s="6">
-        <f t="shared" ref="H42:J42" ca="1" si="82">RANDBETWEEN(1,500)</f>
-        <v>426</v>
-      </c>
-      <c r="I42" s="6">
-        <f t="shared" ca="1" si="82"/>
-        <v>298</v>
-      </c>
-      <c r="J42" s="6">
-        <f t="shared" ca="1" si="82"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4">
-        <v>42</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="6">
-        <f t="shared" ref="E43:F43" ca="1" si="83">RANDBETWEEN(1,100)</f>
-        <v>42</v>
-      </c>
-      <c r="F43" s="6">
-        <f t="shared" ca="1" si="83"/>
-        <v>98</v>
-      </c>
-      <c r="G43" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>57</v>
-      </c>
-      <c r="H43" s="6">
-        <f t="shared" ref="H43:J43" ca="1" si="84">RANDBETWEEN(1,500)</f>
-        <v>158</v>
-      </c>
-      <c r="I43" s="6">
-        <f t="shared" ca="1" si="84"/>
-        <v>490</v>
-      </c>
-      <c r="J43" s="6">
-        <f t="shared" ca="1" si="84"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="6">
-        <f t="shared" ref="E44:F44" ca="1" si="85">RANDBETWEEN(1,100)</f>
-        <v>99</v>
-      </c>
-      <c r="F44" s="6">
-        <f t="shared" ca="1" si="85"/>
-        <v>58</v>
-      </c>
-      <c r="G44" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>174</v>
-      </c>
-      <c r="H44" s="6">
-        <f t="shared" ref="H44:J44" ca="1" si="86">RANDBETWEEN(1,500)</f>
-        <v>256</v>
-      </c>
-      <c r="I44" s="6">
-        <f t="shared" ca="1" si="86"/>
-        <v>31</v>
-      </c>
-      <c r="J44" s="6">
-        <f t="shared" ca="1" si="86"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
-        <v>44</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="6">
-        <f t="shared" ref="E45:F45" ca="1" si="87">RANDBETWEEN(1,100)</f>
-        <v>42</v>
-      </c>
-      <c r="F45" s="6">
-        <f t="shared" ca="1" si="87"/>
-        <v>18</v>
-      </c>
-      <c r="G45" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="H45" s="6">
-        <f t="shared" ref="H45:J45" ca="1" si="88">RANDBETWEEN(1,500)</f>
-        <v>242</v>
-      </c>
-      <c r="I45" s="6">
-        <f t="shared" ca="1" si="88"/>
-        <v>47</v>
-      </c>
-      <c r="J45" s="6">
-        <f t="shared" ca="1" si="88"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E46" s="6">
-        <f t="shared" ref="E46:F46" ca="1" si="89">RANDBETWEEN(1,100)</f>
-        <v>6</v>
-      </c>
-      <c r="F46" s="6">
-        <f t="shared" ca="1" si="89"/>
-        <v>75</v>
-      </c>
-      <c r="G46" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H46" s="6">
-        <f t="shared" ref="H46:J46" ca="1" si="90">RANDBETWEEN(1,500)</f>
-        <v>200</v>
-      </c>
-      <c r="I46" s="6">
-        <f t="shared" ca="1" si="90"/>
-        <v>432</v>
-      </c>
-      <c r="J46" s="6">
-        <f t="shared" ca="1" si="90"/>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" s="6">
-        <f t="shared" ref="E47:F47" ca="1" si="91">RANDBETWEEN(1,100)</f>
-        <v>78</v>
-      </c>
-      <c r="F47" s="6">
-        <f t="shared" ca="1" si="91"/>
-        <v>99</v>
-      </c>
-      <c r="G47" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="H47" s="6">
-        <f t="shared" ref="H47:J47" ca="1" si="92">RANDBETWEEN(1,500)</f>
-        <v>71</v>
-      </c>
-      <c r="I47" s="6">
-        <f t="shared" ca="1" si="92"/>
-        <v>379</v>
-      </c>
-      <c r="J47" s="6">
-        <f t="shared" ca="1" si="92"/>
-        <v>389</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
-        <v>47</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" s="6">
-        <f t="shared" ref="E48:F48" ca="1" si="93">RANDBETWEEN(1,100)</f>
-        <v>56</v>
-      </c>
-      <c r="F48" s="6">
-        <f t="shared" ca="1" si="93"/>
-        <v>34</v>
-      </c>
-      <c r="G48" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="H48" s="6">
-        <f t="shared" ref="H48:J48" ca="1" si="94">RANDBETWEEN(1,500)</f>
-        <v>292</v>
-      </c>
-      <c r="I48" s="6">
-        <f t="shared" ca="1" si="94"/>
-        <v>195</v>
-      </c>
-      <c r="J48" s="6">
-        <f t="shared" ca="1" si="94"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
-        <v>48</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" s="6">
-        <f t="shared" ref="E49:F49" ca="1" si="95">RANDBETWEEN(1,100)</f>
-        <v>22</v>
-      </c>
-      <c r="F49" s="6">
-        <f t="shared" ca="1" si="95"/>
-        <v>86</v>
-      </c>
-      <c r="G49" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>107</v>
-      </c>
-      <c r="H49" s="6">
-        <f t="shared" ref="H49:J49" ca="1" si="96">RANDBETWEEN(1,500)</f>
-        <v>29</v>
-      </c>
-      <c r="I49" s="6">
-        <f t="shared" ca="1" si="96"/>
-        <v>436</v>
-      </c>
-      <c r="J49" s="6">
-        <f t="shared" ca="1" si="96"/>
-        <v>481</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
-        <v>49</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="6">
-        <f t="shared" ref="E50:F50" ca="1" si="97">RANDBETWEEN(1,100)</f>
-        <v>25</v>
-      </c>
-      <c r="F50" s="6">
-        <f t="shared" ca="1" si="97"/>
-        <v>24</v>
-      </c>
-      <c r="G50" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="H50" s="6">
-        <f t="shared" ref="H50:J50" ca="1" si="98">RANDBETWEEN(1,500)</f>
-        <v>393</v>
-      </c>
-      <c r="I50" s="6">
-        <f t="shared" ca="1" si="98"/>
-        <v>493</v>
-      </c>
-      <c r="J50" s="6">
-        <f t="shared" ca="1" si="98"/>
-        <v>310</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
-        <v>50</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="6">
-        <f t="shared" ref="E51:F51" ca="1" si="99">RANDBETWEEN(1,100)</f>
-        <v>5</v>
-      </c>
-      <c r="F51" s="6">
-        <f t="shared" ca="1" si="99"/>
-        <v>24</v>
-      </c>
-      <c r="G51" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>144</v>
-      </c>
-      <c r="H51" s="6">
-        <f t="shared" ref="H51:J51" ca="1" si="100">RANDBETWEEN(1,500)</f>
-        <v>219</v>
-      </c>
-      <c r="I51" s="6">
-        <f t="shared" ca="1" si="100"/>
-        <v>468</v>
-      </c>
-      <c r="J51" s="6">
-        <f t="shared" ca="1" si="100"/>
-        <v>274</v>
-      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LifePodsAlgorithm/src/source/test9.xlsx
+++ b/LifePodsAlgorithm/src/source/test9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelorr/Documents/GitHub/SustainableLifeApp/LifePodsAlgorithm/src/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5919997A-1941-1C4B-BEFD-F653CEDBEA34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A224357C-5263-B744-88A1-5075931F9EFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="69">
   <si>
     <t>Priority (highest = 1)</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Names</t>
-  </si>
-  <si>
-    <t>work</t>
   </si>
   <si>
     <t>Hermione Granger</t>
@@ -526,8 +523,8 @@
   <dimension ref="A1:AE56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55:A56"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -657,10 +654,10 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -683,7 +680,7 @@
         <v>354</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -692,10 +689,10 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -718,7 +715,7 @@
         <v>54</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -727,10 +724,10 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -753,7 +750,7 @@
         <v>206</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -762,10 +759,10 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -788,7 +785,7 @@
         <v>367</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -797,10 +794,10 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -823,7 +820,7 @@
         <v>341</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -832,10 +829,10 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -858,7 +855,7 @@
         <v>398</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -867,10 +864,10 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -893,7 +890,7 @@
         <v>286</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -902,10 +899,10 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -928,7 +925,7 @@
         <v>302</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -937,10 +934,10 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -963,7 +960,7 @@
         <v>121</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -972,10 +969,10 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -998,7 +995,7 @@
         <v>65</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1007,10 +1004,10 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1033,7 +1030,7 @@
         <v>348</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1042,10 +1039,10 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1068,7 +1065,7 @@
         <v>241</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1077,10 +1074,10 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1103,7 +1100,7 @@
         <v>256</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1112,10 +1109,10 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1138,7 +1135,7 @@
         <v>443</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1147,10 +1144,10 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1173,7 +1170,7 @@
         <v>203</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1182,10 +1179,10 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1208,7 +1205,7 @@
         <v>358</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1217,10 +1214,10 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1243,7 +1240,7 @@
         <v>123</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1252,10 +1249,10 @@
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1278,7 +1275,7 @@
         <v>313</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1287,10 +1284,10 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1313,7 +1310,7 @@
         <v>472</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1322,10 +1319,10 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1348,10 +1345,10 @@
         <v>467</v>
       </c>
       <c r="M22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1360,10 +1357,10 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1386,7 +1383,7 @@
         <v>115</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1395,10 +1392,10 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1421,7 +1418,7 @@
         <v>181</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1430,10 +1427,10 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1456,7 +1453,7 @@
         <v>381</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1465,10 +1462,10 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1491,7 +1488,7 @@
         <v>321</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1500,10 +1497,10 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1526,7 +1523,7 @@
         <v>70</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1535,10 +1532,10 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1561,7 +1558,7 @@
         <v>59</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1570,10 +1567,10 @@
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1596,7 +1593,7 @@
         <v>376</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1605,10 +1602,10 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1631,7 +1628,7 @@
         <v>399</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1640,10 +1637,10 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1666,7 +1663,7 @@
         <v>42</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1675,10 +1672,10 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1701,7 +1698,7 @@
         <v>229</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1710,10 +1707,10 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1736,7 +1733,7 @@
         <v>192</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1745,10 +1742,10 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1771,7 +1768,7 @@
         <v>449</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1780,10 +1777,10 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1806,7 +1803,7 @@
         <v>309</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1815,10 +1812,10 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1841,7 +1838,7 @@
         <v>319</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1850,10 +1847,10 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1876,7 +1873,7 @@
         <v>144</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1885,10 +1882,10 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1911,7 +1908,7 @@
         <v>387</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1920,10 +1917,10 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1946,7 +1943,7 @@
         <v>242</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1955,10 +1952,10 @@
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1981,7 +1978,7 @@
         <v>83</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1990,10 +1987,10 @@
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -2016,7 +2013,7 @@
         <v>384</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2025,10 +2022,10 @@
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -2051,7 +2048,7 @@
         <v>486</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2060,10 +2057,10 @@
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -2086,7 +2083,7 @@
         <v>464</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2095,10 +2092,10 @@
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -2121,7 +2118,7 @@
         <v>460</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2130,10 +2127,10 @@
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -2156,7 +2153,7 @@
         <v>165</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2165,10 +2162,10 @@
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -2191,7 +2188,7 @@
         <v>56</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2200,10 +2197,10 @@
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -2226,7 +2223,7 @@
         <v>150</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2235,10 +2232,10 @@
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -2261,7 +2258,7 @@
         <v>457</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2270,10 +2267,10 @@
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -2296,7 +2293,7 @@
         <v>253</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2305,10 +2302,10 @@
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -2331,7 +2328,7 @@
         <v>14</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2340,10 +2337,10 @@
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -2366,7 +2363,7 @@
         <v>265</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="13" x14ac:dyDescent="0.15">
@@ -2375,10 +2372,10 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -2401,7 +2398,7 @@
         <v>25</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2410,10 +2407,10 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -2436,7 +2433,7 @@
         <v>265</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2445,10 +2442,10 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2471,7 +2468,7 @@
         <v>25</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
